--- a/shift/i_shift_t1.xlsx
+++ b/shift/i_shift_t1.xlsx
@@ -466,42 +466,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sffaaa</t>
+          <t>iNeuron.ai</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camst</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>456</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>234</t>
         </is>
       </c>
     </row>

--- a/shift/i_shift_t1.xlsx
+++ b/shift/i_shift_t1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,37 +471,79 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Baller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>iNeuron.ai</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Baller</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
